--- a/GCC_2019/Project Outputs for GCC_2019/GCC_2019.xlsx
+++ b/GCC_2019/Project Outputs for GCC_2019/GCC_2019.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{131667FD-11AB-43D5-A7CE-02C858661BFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A354FDC-CED9-40EF-ADEB-F0F0631BB262}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="336" yWindow="348" windowWidth="17280" windowHeight="8994" xr2:uid="{0A52AFFA-8FF2-4238-9C96-17AD21B76288}"/>
+    <workbookView xWindow="336" yWindow="348" windowWidth="17280" windowHeight="8994" xr2:uid="{2044F983-60B8-40CA-B3A7-E2778BC29C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="GCC_2019" sheetId="1" r:id="rId1"/>
@@ -654,14 +654,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C34166-C175-4C2F-B35A-03467A36861C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E777D7EE-8370-4D02-BC50-66DBE003B081}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="6" width="6.734375" customWidth="1"/>
+    <col min="1" max="6" width="5.41796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
